--- a/biology/Médecine/Louis-Alexandre_Vincent/Louis-Alexandre_Vincent.xlsx
+++ b/biology/Médecine/Louis-Alexandre_Vincent/Louis-Alexandre_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Louis-Alexandre Vincent, né le 29 juin 1842 à Brest (Finistère) et mort le 27 mai 1904 à Paris, est un médecin militaire français.
@@ -514,15 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premières années
-Louis-Alexandre Vincent naît le 29 juin 1842 à Brest (Finistère).
+          <t>Premières années</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Alexandre Vincent naît le 29 juin 1842 à Brest (Finistère).
 Il est le père du Général Jean Vincent.
 Il entre en 1860 à l'École de médecine navale de Brest, où fut notamment formé Dominique Larrey, il est nommé chirurgien de 3ème classe le 24 mai 1862 puis docteur en médecine en 1867.
 Durant ses études de médecine, il embarquera deux fois pour rejoindre les troupes françaises engagées dans l’intervention française au Mexique
 En 1868, lors de l'épidémie de choléra qui frappe la ville de Brest, il reçoit le commandement d’une ambulance et son engagement est récompensé par une épée d’honneur offerte par sa ville natale.
 Quelques années avant sa mort, Louis-Alexandre Vincent avait envisagé d’ajouter à son nom celui de sa grand-mère "Kérouman" et se faisait appeler Vincent de Kérouman.
-Carrière
-Il commence alors une carrière de médecine d’escadre qu’il poursuivra pendant plus de vingt ans sur toutes les mers du globe. Dès son premier embarquement il met en application les enseignements tirés lors de ses deux voyages au Mexique : surveillance de l’état de santé et amélioration de la vie de l’équipage. Aux escales il s’intéresse à la vie de la population, à leurs mœurs et à leurs maladies endémiques, en particulier le choléra, le paludisme, et à la fièvre jaune. En 1883, il participe avec d’éminents savants du Muséum à bord du Talisman à l’exploration des fonds océaniques, expédition dirigée par Alphonse Milne-Edwards.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Louis-Alexandre_Vincent</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Alexandre_Vincent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence alors une carrière de médecine d’escadre qu’il poursuivra pendant plus de vingt ans sur toutes les mers du globe. Dès son premier embarquement il met en application les enseignements tirés lors de ses deux voyages au Mexique : surveillance de l’état de santé et amélioration de la vie de l’équipage. Aux escales il s’intéresse à la vie de la population, à leurs mœurs et à leurs maladies endémiques, en particulier le choléra, le paludisme, et à la fièvre jaune. En 1883, il participe avec d’éminents savants du Muséum à bord du Talisman à l’exploration des fonds océaniques, expédition dirigée par Alphonse Milne-Edwards.
 Ses différentes études sont envoyées aux revues scientifiques et lui valent en 1883 une médaille de la Société de Géographie, en 1888 le Prix de Médecine Navale, en 1897 le Prix Baron Larrey de l’Académie de Médecine, et en 1899 le prix Montyon de l’Académie des Sciences.
 Il est élu en 1899 Membre correspondant de l’Académie de Médecine et du Muséum d’Histoires Naturelles.
 Il est choisi en 1898 pour être Directeur du Service de Santé des Troupes Coloniales qui viennent d’être créées.
@@ -534,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Louis-Alexandre_Vincent</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis-Alexandre_Vincent</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur 1895
  Officier de l'ordre des Palmes académiques (à l'époque Officier de l'Instruction Publique et Officier d'Académie) 1884 et 1904
@@ -568,9 +622,43 @@
  Ordre du Médjidié Commandeur avec plaque 1893
  Commandeur de l'ordre du Nichan Iftikhar 1893
  Commandeur dans l'ordre du Lion et du Soleil 1893
- Commandeur de ordre de l'Étoile d'Anjouan
-Sources et liens externes
-le Comité des travaux historiques et scientifiques : 'https://cths.fr/an/savant.php?id=101145#
+ Commandeur de ordre de l'Étoile d'Anjouan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis-Alexandre_Vincent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Alexandre_Vincent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources et liens externes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le Comité des travaux historiques et scientifiques : 'https://cths.fr/an/savant.php?id=101145#
 SMLH : https://www.smlh29n.fr/memorial/legionnaires/13304-vincent-louis-alexandre
  Portail de la médecine   Portail de l’histoire militaire                    </t>
         </is>
